--- a/documents/TestCases.xlsx
+++ b/documents/TestCases.xlsx
@@ -713,9 +713,6 @@
     <t>Search with an invalid city name</t>
   </si>
   <si>
-    <t>CityName=Empty String|Special Characters|Any made-up city names</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">- No dropdown menu shows up.
 - User should be able to see this message right below the Search City text field: </t>
@@ -813,6 +810,9 @@
       </rPr>
       <t xml:space="preserve"> https://openweathermap.org/data/2.5/find?appid={appId}&amp;q={cityName}</t>
     </r>
+  </si>
+  <si>
+    <t>CityName=Special Characters|Any made-up city names</t>
   </si>
 </sst>
 </file>
@@ -940,41 +940,41 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1370,12 +1370,12 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="A2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1383,19 +1383,19 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="15">
         <v>44303</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1413,11 +1413,11 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="4" t="s">
         <v>34</v>
       </c>
@@ -1433,19 +1433,19 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="15">
         <v>44303</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1463,11 +1463,11 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
@@ -1483,26 +1483,26 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="15">
         <v>44303</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -1511,18 +1511,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1530,11 +1530,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -1546,6 +1541,11 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <conditionalFormatting sqref="I3:I8">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -1577,7 +1577,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1626,29 +1626,29 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>44303</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>6</v>
@@ -1656,11 +1656,11 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="271.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="4" t="s">
         <v>36</v>
       </c>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="4" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
@@ -1686,17 +1686,17 @@
       <c r="D4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>6</v>

--- a/documents/TestCases.xlsx
+++ b/documents/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="API Test" sheetId="1" r:id="rId1"/>
@@ -294,10 +294,6 @@
     </r>
   </si>
   <si>
-    <t>q=Empy string|Speical charaters|Any made-up names
-appId=439d4b804bc8187953eb36d2a8c26a02</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">3. Send a GET request to API under test without </t>
     </r>
@@ -432,29 +428,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>means a city that exists in the file http://bulk.openweathermap.org/sample/city.list.json.gz</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Invalid </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>means a city that does not exist in the file http://bulk.openweathermap.org/sample/city.list.json.gz or an empty string, special characters…</t>
     </r>
   </si>
   <si>
@@ -582,50 +555,6 @@
       </rPr>
       <t xml:space="preserve"> city in return.
 - City from the from the should must match with q parameter.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Invalid </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">means a city that does not exist in the file http://bulk.openweathermap.org/sample/city.list.json.gz or an empty string, special characters… or do not send the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">q </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parameter at all.</t>
     </r>
   </si>
   <si>
@@ -812,7 +741,37 @@
     </r>
   </si>
   <si>
-    <t>CityName=Special Characters|Any made-up city names</t>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>means a city that does not exist in the file http://bulk.openweathermap.org/sample/city.list.json.gz</t>
+    </r>
+  </si>
+  <si>
+    <t>CityName=Any made-up city names</t>
+  </si>
+  <si>
+    <t>Invalid means a city that does not exist in the file http://bulk.openweathermap.org/sample/city.list.json.gz</t>
+  </si>
+  <si>
+    <t>q=Any made-up city names
+appId=439d4b804bc8187953eb36d2a8c26a02</t>
   </si>
 </sst>
 </file>
@@ -952,29 +911,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1320,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1351,7 +1310,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>2</v>
@@ -1371,7 +1330,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="11"/>
@@ -1383,29 +1342,29 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>44</v>
+      <c r="A3" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="19">
         <v>44303</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>6</v>
@@ -1413,19 +1372,19 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>6</v>
@@ -1434,25 +1393,25 @@
     </row>
     <row r="5" spans="1:10" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="19">
         <v>44303</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>32</v>
+      <c r="D5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>16</v>
@@ -1465,11 +1424,11 @@
     <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>14</v>
@@ -1483,26 +1442,26 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>46</v>
+      <c r="A7" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="19">
         <v>44303</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="13"/>
+      <c r="D7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="15"/>
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -1511,18 +1470,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1576,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1607,7 +1566,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>2</v>
@@ -1626,29 +1585,29 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="6" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>42</v>
+      <c r="A2" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="19">
         <v>44303</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>6</v>
@@ -1656,17 +1615,17 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="271.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="18"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>6</v>
@@ -1675,7 +1634,7 @@
     </row>
     <row r="4" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
@@ -1684,19 +1643,19 @@
         <v>44303</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>6</v>

--- a/documents/TestCases.xlsx
+++ b/documents/TestCases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="API Test" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="86">
   <si>
     <t>Data</t>
   </si>
@@ -53,9 +50,6 @@
   </si>
   <si>
     <t>PhiPGN</t>
-  </si>
-  <si>
-    <t>Scenario</t>
   </si>
   <si>
     <t>QA Owner</t>
@@ -132,7 +126,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>500</t>
+      <t>200</t>
     </r>
     <r>
       <rPr>
@@ -155,77 +149,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>only one</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> city in return.
-- Response message should be: "</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Internal Server Error</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Request should return </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> HTTP status code.
-- Response is a well-formed JSON document.
-- Should have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>no</t>
     </r>
     <r>
@@ -328,6 +251,32 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Send a request with a valid </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parameter</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Send a request with an invalid </t>
     </r>
     <r>
@@ -339,32 +288,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">appId </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parameter</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Send a request with a valid </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>q</t>
     </r>
     <r>
@@ -379,56 +302,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Send a request with an invalid </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> parameter</t>
-    </r>
-  </si>
-  <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Valid </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>means a city that exists in the file http://bulk.openweathermap.org/sample/city.list.json.gz</t>
-    </r>
   </si>
   <si>
     <r>
@@ -619,10 +493,524 @@
     <t>5. Select any options from the dropdown.</t>
   </si>
   <si>
+    <t>U001</t>
+  </si>
+  <si>
+    <t>U002</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>- A dropdown menu is shows up right below Search City textfield displaying a list of city names.
+- Each dropdown option should contain these information: City Name + Country Code, Temperature in Celcius unit, a Weather Icon, the Lattitude and Longitude.
+- City Name in each dropdown option should contain or relate to the input in Search City textfield.</t>
+  </si>
+  <si>
+    <t>CityName=Any made-up city names</t>
+  </si>
+  <si>
+    <t>q=Any made-up city names
+appId=439d4b804bc8187953eb36d2a8c26a02</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>(This is an assumption non-functional test case)</t>
+  </si>
+  <si>
+    <t>q=$#@!%^&amp;*()
+appId=439d4b804bc8187953eb36d2a8c26a02</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Request should return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>403 Forbidden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HTTP status code.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500 Internal Server Error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HTTP Status Code was received.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> When user inputs a city name into search field and clicks Search Button, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>find</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> API will be called. If user selects a search result from the search dropdown menu then </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>weather</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onecall</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> APIs will be called. Here I just write test cases for the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>find</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> API.</t>
+    </r>
+  </si>
+  <si>
+    <t>User should not be able to send out a request with special characters due to security reasons</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Request should return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HTTP status code.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Response message should be: "</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Internal Server Error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>CityName=</t>
+  </si>
+  <si>
+    <t>CityName=$#@!%^&amp;*()</t>
+  </si>
+  <si>
+    <t>U003</t>
+  </si>
+  <si>
+    <t>U004</t>
+  </si>
+  <si>
+    <t>- Search button should be disabled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Search button is enabled.</t>
+  </si>
+  <si>
+    <t>- Search City search field should filter out and remove the special characters from user's input.</t>
+  </si>
+  <si>
+    <t>- Special characters have not been filtered out from the Search City search field.</t>
+  </si>
+  <si>
+    <t>q=
+appId=439d4b804bc8187953eb36d2a8c26a02</t>
+  </si>
+  <si>
+    <t>Search City: Search with a valid city name</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Chrome 89.0.4389.128 (Official Build) (64-bit)</t>
+  </si>
+  <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>CityName=Any valid city names with/without the country code (ex: London or London, GB)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> means a city that exists in the file http://bulk.openweathermap.org/sample/city.list.json.gz</t>
+    </r>
+  </si>
+  <si>
+    <t>Pre-conditions</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://openweathermap.org/</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Test case Id</t>
+  </si>
+  <si>
+    <t>User should be able to search for weather information with valid city names</t>
+  </si>
+  <si>
+    <t>Search City: Search with an invalid city name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Invalid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> means a city that does not exist in the file http://bulk.openweathermap.org/sample/city.list.json.gz</t>
+    </r>
+  </si>
+  <si>
+    <t>Search City: User must input at least one character into Search City search field</t>
+  </si>
+  <si>
+    <t>Search Button should be disabled if user does not put anything into Search City search field</t>
+  </si>
+  <si>
+    <t>Search City: User should not be able to search weather with special characters due to security reasons</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- No dropdown menu shows up.
+- User should be able to see this message right below the Search City search field: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Not found. To make search more precise put the city's name, comma, 2-letter country code (ISO3166)."</t>
+    </r>
+  </si>
+  <si>
+    <t>https://openweathermap.org/data/2.5/find?appid={appId}&amp;q={cityName}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Send a request with an invalid </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parameter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User should not be able to send a Find request without </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parameter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. Send a GET request to API under test with </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parameter as an empty string.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Open your browswer.
+2. Navigate to https://openweathermap.org
+3. Input CityName as an empty string into Search City search field.</t>
+  </si>
+  <si>
+    <t>1. Open your browswer.
+2. Navigate to https://openweathermap.org
+3. Input CityName into Search City textfield.</t>
+  </si>
+  <si>
     <t>- User should be able to see the corresponding weather information in the content section for the selected option, including:
-+ Search date and time.
 + City name.
-+ Temperature in Celcius.
++ Temperature.
 + 'Feels like' information, including:
 --&gt; Wind Line.
 --&gt;  Pressure.
@@ -635,150 +1023,15 @@
 + Hourly forecast section.
 + 8-day forecast section.</t>
   </si>
-  <si>
-    <t>Search with a valid city name</t>
-  </si>
-  <si>
-    <t>Search with an invalid city name</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- No dropdown menu shows up.
-- User should be able to see this message right below the Search City text field: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Not found. To make search more precise put the city's name, comma, 2-letter country code (ISO3166)."</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CityName=Any valid city names with/without the country code (ex: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>London</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>London, GB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>U001</t>
-  </si>
-  <si>
-    <t>U002</t>
-  </si>
-  <si>
-    <t>A001</t>
-  </si>
-  <si>
-    <t>A002</t>
-  </si>
-  <si>
-    <t>A003</t>
-  </si>
-  <si>
-    <t>- A dropdown menu is shows up right below Search City textfield displaying a list of city names.
-- Each dropdown option should contain these information: City Name + Country Code, Temperature in Celcius unit, a Weather Icon, the Lattitude and Longitude.
-- City Name in each dropdown option should contain or relate to the input in Search City textfield.</t>
-  </si>
-  <si>
-    <r>
-      <t>API under test:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> https://openweathermap.org/data/2.5/find?appid={appId}&amp;q={cityName}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Invalid </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>means a city that does not exist in the file http://bulk.openweathermap.org/sample/city.list.json.gz</t>
-    </r>
-  </si>
-  <si>
-    <t>CityName=Any made-up city names</t>
-  </si>
-  <si>
-    <t>Invalid means a city that does not exist in the file http://bulk.openweathermap.org/sample/city.list.json.gz</t>
-  </si>
-  <si>
-    <t>q=Any made-up city names
-appId=439d4b804bc8187953eb36d2a8c26a02</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +1048,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -803,23 +1073,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -868,79 +1151,338 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1277,240 +1819,817 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="7" width="25.109375" customWidth="1"/>
-    <col min="8" max="8" width="34.5546875" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="6"/>
-    <col min="10" max="10" width="34.109375" style="6" customWidth="1"/>
+    <col min="1" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="85.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="22.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="26">
+        <v>44304.893055555556</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="26">
+        <v>44304.893055555556</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="26">
+        <v>44304.893055555556</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="26">
+        <v>44304.893055555556</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="19">
-        <v>44303</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="19">
-        <v>44303</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="19">
-        <v>44303</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="2"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+  <mergeCells count="46">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
   </mergeCells>
-  <conditionalFormatting sqref="I3:I8">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1518,12 +2637,18 @@
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I8</xm:sqref>
+          <xm:sqref>D15:D16 D30:D31 D45:D46 D60:D61</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B9 B24 B39 B54</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1533,144 +2658,724 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="1" max="1" width="30.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="80.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" customWidth="1"/>
     <col min="6" max="7" width="25.109375" customWidth="1"/>
     <col min="8" max="8" width="34.5546875" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="6"/>
-    <col min="10" max="10" width="34.109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="34.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="26">
+        <v>44304.893055555556</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="B20" s="26">
+        <v>44304.90347222222</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="D27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="26">
+        <v>44304.90347222222</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="B41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="E41" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    </row>
+    <row r="42" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="19">
-        <v>44303</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="B47" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="26">
+        <v>44304.90347222222</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="271.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8">
-        <v>44303</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2"/>
+      <c r="E56" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
+  <mergeCells count="44">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
   </mergeCells>
-  <conditionalFormatting sqref="I2:I3">
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
@@ -1678,7 +3383,7 @@
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
@@ -1686,16 +3391,28 @@
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B21" r:id="rId2"/>
+    <hyperlink ref="B35" r:id="rId3"/>
+    <hyperlink ref="B49" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I4</xm:sqref>
+          <xm:sqref>D13:D14 D28 D42 D56</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$B$1:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7 B22 B36 B50</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1705,22 +3422,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/documents/TestCases.xlsx
+++ b/documents/TestCases.xlsx
@@ -1009,16 +1009,8 @@
   </si>
   <si>
     <t>- User should be able to see the corresponding weather information in the content section for the selected option, including:
-+ City name.
-+ Temperature.
-+ 'Feels like' information, including:
---&gt; Wind Line.
---&gt;  Pressure.
---&gt;  Humidity.
---&gt; UV.
---&gt; Dew point.
---&gt; Visibility.
-+ Map.
++ City name (should map with selected option).
++ Map section.
 + Minute forecast section.
 + Hourly forecast section.
 + 8-day forecast section.</t>
@@ -1243,15 +1235,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1267,13 +1260,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1836,10 +1828,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -1850,122 +1842,122 @@
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="19">
         <v>44304.893055555556</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -2018,122 +2010,122 @@
       <c r="A18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="19">
         <v>44304.893055555556</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -2186,122 +2178,122 @@
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="19">
         <v>44304.893055555556</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
@@ -2358,122 +2350,122 @@
       <c r="A48" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="19">
         <v>44304.893055555556</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="23"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
@@ -2499,7 +2491,7 @@
       <c r="B60" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -2514,7 +2506,7 @@
       <c r="B61" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="18"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="2" t="s">
         <v>5</v>
       </c>
@@ -2522,16 +2514,31 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
@@ -2542,32 +2549,17 @@
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
     <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
@@ -2681,56 +2673,56 @@
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="19">
         <v>44304.893055555556</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -2747,56 +2739,56 @@
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -2830,7 +2822,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" ht="216" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -2847,54 +2839,54 @@
       <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="19">
         <v>44304.90347222222</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -2911,56 +2903,56 @@
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
@@ -2998,56 +2990,56 @@
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="19">
         <v>44304.90347222222</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -3064,56 +3056,56 @@
       <c r="A36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
@@ -3132,7 +3124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>83</v>
       </c>
@@ -3153,56 +3145,56 @@
       <c r="A44" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="26">
+      <c r="B48" s="19">
         <v>44304.90347222222</v>
       </c>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
@@ -3219,56 +3211,56 @@
       <c r="A50" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
@@ -3306,42 +3298,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="B54:E54"/>
@@ -3350,6 +3306,42 @@
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <conditionalFormatting sqref="D13">
     <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">

--- a/documents/TestCases.xlsx
+++ b/documents/TestCases.xlsx
@@ -1011,7 +1011,6 @@
     <t>- User should be able to see the corresponding weather information in the content section for the selected option, including:
 + City name (should map with selected option).
 + Map section.
-+ Minute forecast section.
 + Hourly forecast section.
 + 8-day forecast section.</t>
   </si>
@@ -1235,16 +1234,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1260,11 +1258,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1828,10 +1827,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -1842,122 +1841,122 @@
       <c r="A3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="25">
         <v>44304.893055555556</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -2010,122 +2009,122 @@
       <c r="A18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="25">
         <v>44304.893055555556</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -2178,122 +2177,122 @@
       <c r="A33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="25">
         <v>44304.893055555556</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="23"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
@@ -2350,122 +2349,122 @@
       <c r="A48" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="25">
         <v>44304.893055555556</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="23"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
@@ -2491,7 +2490,7 @@
       <c r="B60" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -2506,7 +2505,7 @@
       <c r="B61" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="27"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="2" t="s">
         <v>5</v>
       </c>
@@ -2514,31 +2513,16 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
@@ -2550,16 +2534,31 @@
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
     <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
@@ -2653,7 +2652,7 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B21" sqref="B21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2673,56 +2672,56 @@
       <c r="A1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="25">
         <v>44304.893055555556</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -2739,56 +2738,56 @@
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -2822,7 +2821,7 @@
       </c>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -2839,54 +2838,54 @@
       <c r="A16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="25">
         <v>44304.90347222222</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -2903,56 +2902,56 @@
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
@@ -2990,56 +2989,56 @@
       <c r="A30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="25">
         <v>44304.90347222222</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
@@ -3056,56 +3055,56 @@
       <c r="A36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
@@ -3145,56 +3144,56 @@
       <c r="A44" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="25">
         <v>44304.90347222222</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
@@ -3211,56 +3210,56 @@
       <c r="A50" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
@@ -3298,6 +3297,42 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="B54:E54"/>
@@ -3306,42 +3341,6 @@
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <conditionalFormatting sqref="D13">
     <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
